--- a/Setup/private_protocol.xlsx
+++ b/Setup/private_protocol.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_18418C24D8DD38316DC469E550781BC67E785951" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9511BD-C5CE-4CCB-BC71-9FE6B0F357FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27255" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -971,26 +971,26 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="33.125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="4" t="s">
         <v>11</v>
@@ -1081,7 +1081,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="4" t="s">
         <v>33</v>
@@ -1102,7 +1102,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>34</v>
@@ -1123,7 +1123,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="4" t="s">
         <v>35</v>
@@ -1144,7 +1144,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="4" t="s">
         <v>36</v>
@@ -1165,7 +1165,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="4" t="s">
         <v>61</v>
@@ -1186,7 +1186,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>3</v>
@@ -1228,7 +1228,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>4</v>
@@ -1249,7 +1249,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1283,7 +1283,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="J16" s="21"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="J17" s="21"/>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="J19" s="21"/>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="J22" s="21"/>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="J23" s="21"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="J24" s="21"/>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="J25" s="21"/>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1539,17 +1539,17 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="K2" sqref="K2:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="3" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="3" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="4" t="s">
         <v>38</v>
@@ -1617,7 +1617,7 @@
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
         <v>38</v>
@@ -1671,7 +1671,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -1691,7 +1691,7 @@
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
     </row>
-    <row r="5" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>62</v>
@@ -1717,7 +1717,7 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="16" t="s">
         <v>58</v>
@@ -1743,7 +1743,7 @@
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="4" t="s">
@@ -1767,7 +1767,7 @@
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="7" t="s">
@@ -1815,17 +1815,17 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="1" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="4" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="R1" s="30"/>
       <c r="S1" s="30"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="8" t="s">
         <v>69</v>
@@ -1899,7 +1899,7 @@
       <c r="R2" s="32"/>
       <c r="S2" s="32"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="8" t="s">
         <v>70</v>
@@ -1928,7 +1928,7 @@
       <c r="R3" s="34"/>
       <c r="S3" s="35"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="36"/>
       <c r="C4" s="37"/>
@@ -1949,7 +1949,7 @@
       <c r="R4" s="37"/>
       <c r="S4" s="38"/>
     </row>
-    <row r="5" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="26" t="s">
         <v>74</v>
@@ -1978,7 +1978,7 @@
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="28"/>
       <c r="C6" s="8" t="s">
@@ -2020,6 +2020,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2028,18 +2029,18 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="1" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -2072,7 +2073,7 @@
       <c r="R1" s="30"/>
       <c r="S1" s="30"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="8" t="s">
         <v>69</v>
@@ -2129,7 +2130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="8" t="s">
         <v>70</v>
@@ -2170,7 +2171,7 @@
       <c r="R3" s="41"/>
       <c r="S3" s="41"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -2191,7 +2192,7 @@
       <c r="R4" s="42"/>
       <c r="S4" s="42"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="26" t="s">
         <v>74</v>
@@ -2220,7 +2221,7 @@
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="27"/>
       <c r="C6" s="8" t="s">
@@ -2247,7 +2248,7 @@
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="28"/>
       <c r="C7" s="7" t="s">
@@ -2289,6 +2290,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2297,17 +2299,17 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="1" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="4" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
@@ -2340,7 +2342,7 @@
       <c r="R1" s="30"/>
       <c r="S1" s="30"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="8" t="s">
         <v>69</v>
@@ -2381,7 +2383,7 @@
       <c r="R2" s="32"/>
       <c r="S2" s="32"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="8" t="s">
         <v>70</v>
@@ -2410,7 +2412,7 @@
       <c r="R3" s="34"/>
       <c r="S3" s="35"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="36"/>
       <c r="C4" s="37"/>
@@ -2431,7 +2433,7 @@
       <c r="R4" s="37"/>
       <c r="S4" s="38"/>
     </row>
-    <row r="5" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="26" t="s">
         <v>74</v>
@@ -2460,7 +2462,7 @@
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="28"/>
       <c r="C6" s="8" t="s">
@@ -2513,14 +2515,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="1" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="4" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>76</v>
       </c>
@@ -2553,7 +2555,7 @@
       <c r="R1" s="30"/>
       <c r="S1" s="30"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="8" t="s">
         <v>69</v>
@@ -2584,7 +2586,7 @@
       <c r="R2" s="44"/>
       <c r="S2" s="45"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="8" t="s">
         <v>70</v>
@@ -2613,7 +2615,7 @@
       <c r="R3" s="34"/>
       <c r="S3" s="35"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="36"/>
       <c r="C4" s="37"/>
@@ -2634,7 +2636,7 @@
       <c r="R4" s="37"/>
       <c r="S4" s="38"/>
     </row>
-    <row r="5" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="26" t="s">
         <v>74</v>
@@ -2663,7 +2665,7 @@
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="28"/>
       <c r="C6" s="8"/>
